--- a/data/example_alk/alk_data/alk_vs_sal.xlsx
+++ b/data/example_alk/alk_data/alk_vs_sal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul.mcelhany/Documents/GitHub/alk_dic/data/example_alk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul.mcelhany/Documents/GitHub/alk_dic/data/example_alk/alk_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB3B58-96BD-3C42-98B5-9D97C7917416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F433064F-BDB3-794F-AB97-3B9AE5A4D157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="1420" windowWidth="27980" windowHeight="20140" xr2:uid="{C3874D3F-43D9-FE47-BB0F-9142419DB1A0}"/>
+    <workbookView xWindow="9380" yWindow="1440" windowWidth="27980" windowHeight="20140" xr2:uid="{C3874D3F-43D9-FE47-BB0F-9142419DB1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,10 +245,10 @@
     <t>replicate_num</t>
   </si>
   <si>
+    <t>alk_lab</t>
+  </si>
+  <si>
     <t>nwfsc_oa</t>
-  </si>
-  <si>
-    <t>alk_lab</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BAF4BB-7371-304D-AD1D-093CC190A452}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -615,7 +617,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -677,7 +679,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -692,7 +694,7 @@
         <v>49</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -730,7 +732,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -745,7 +747,7 @@
         <v>49</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -783,7 +785,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -798,7 +800,7 @@
         <v>49</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -839,7 +841,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -854,7 +856,7 @@
         <v>49</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -892,7 +894,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -907,7 +909,7 @@
         <v>49</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -945,7 +947,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -960,7 +962,7 @@
         <v>49</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -998,7 +1000,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1013,7 +1015,7 @@
         <v>49</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
@@ -1051,7 +1053,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1066,7 +1068,7 @@
         <v>49</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1104,7 +1106,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1119,7 +1121,7 @@
         <v>49</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1157,7 +1159,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1172,7 +1174,7 @@
         <v>49</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -1210,7 +1212,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1225,7 +1227,7 @@
         <v>49</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -1263,7 +1265,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1278,7 +1280,7 @@
         <v>49</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -1316,7 +1318,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1331,7 +1333,7 @@
         <v>49</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
@@ -1369,7 +1371,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1384,7 +1386,7 @@
         <v>49</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
@@ -1422,7 +1424,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -1437,7 +1439,7 @@
         <v>49</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -1478,7 +1480,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -1493,7 +1495,7 @@
         <v>49</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -1531,7 +1533,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -1546,7 +1548,7 @@
         <v>49</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
@@ -1584,7 +1586,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1599,7 +1601,7 @@
         <v>49</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>50</v>
@@ -1637,7 +1639,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -1652,7 +1654,7 @@
         <v>49</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>50</v>
@@ -1693,7 +1695,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -1708,7 +1710,7 @@
         <v>49</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
@@ -1749,7 +1751,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -1764,7 +1766,7 @@
         <v>49</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>50</v>
@@ -1805,7 +1807,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -1820,7 +1822,7 @@
         <v>49</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
@@ -1861,7 +1863,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -1876,7 +1878,7 @@
         <v>49</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>50</v>
@@ -1917,7 +1919,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -1932,7 +1934,7 @@
         <v>49</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
         <v>50</v>
@@ -1973,7 +1975,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -1988,7 +1990,7 @@
         <v>49</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
         <v>50</v>
@@ -2026,7 +2028,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
@@ -2041,7 +2043,7 @@
         <v>49</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>50</v>
@@ -2079,7 +2081,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
@@ -2094,7 +2096,7 @@
         <v>49</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
@@ -2132,7 +2134,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
@@ -2147,7 +2149,7 @@
         <v>49</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>50</v>
@@ -2188,7 +2190,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -2203,7 +2205,7 @@
         <v>49</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -2244,7 +2246,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -2259,7 +2261,7 @@
         <v>49</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>50</v>
@@ -2297,7 +2299,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -2312,7 +2314,7 @@
         <v>49</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
         <v>50</v>
@@ -2350,7 +2352,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
@@ -2365,7 +2367,7 @@
         <v>49</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
         <v>50</v>
@@ -2403,7 +2405,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
         <v>45</v>
@@ -2418,7 +2420,7 @@
         <v>49</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
         <v>50</v>
@@ -2456,7 +2458,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
@@ -2471,7 +2473,7 @@
         <v>49</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -2509,7 +2511,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
         <v>47</v>
@@ -2524,7 +2526,7 @@
         <v>49</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>50</v>
@@ -2564,14 +2566,14 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D36" xr:uid="{0121CAD0-C233-2A41-992E-1591696CC270}">
       <formula1>"calcium_r1, alk_vs_sal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E36" xr:uid="{F96C1502-7584-D145-B560-0F2EEF455D49}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E36 E2" xr:uid="{F96C1502-7584-D145-B560-0F2EEF455D49}">
       <formula1>"chamber, head_tank, high_salinity, other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F36" xr:uid="{888DE94D-B33C-9645-9D76-E25178C80931}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F36" xr:uid="{965AD787-0F9E-144B-BD40-622D59A97E97}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G36" xr:uid="{CEB71F44-E139-154B-8B91-D229E389A828}">
@@ -2589,9 +2591,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I36" xr:uid="{C7B4F219-EF20-224F-AAF9-26E04E26A926}">
       <formula1>"feed_day, pre_experiment, alk_vs_sal,standard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A36" xr:uid="{ED2E39F9-2593-A043-BDA2-AFE94B2BD2C7}">
-      <formula1>"nwfsc_oa, gagnon"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/example_alk/alk_data/alk_vs_sal.xlsx
+++ b/data/example_alk/alk_data/alk_vs_sal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul.mcelhany/Documents/GitHub/alk_dic/data/example_alk/alk_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F433064F-BDB3-794F-AB97-3B9AE5A4D157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173AFBC-EC23-BC44-8755-9A8E488008E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="1440" windowWidth="27980" windowHeight="20140" xr2:uid="{C3874D3F-43D9-FE47-BB0F-9142419DB1A0}"/>
+    <workbookView xWindow="2620" yWindow="1420" windowWidth="37260" windowHeight="20140" xr2:uid="{C3874D3F-43D9-FE47-BB0F-9142419DB1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="73">
   <si>
     <t>sample_id</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>nwfsc_oa</t>
+  </si>
+  <si>
+    <t>quality_flag</t>
   </si>
 </sst>
 </file>
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BAF4BB-7371-304D-AD1D-093CC190A452}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,9 +616,10 @@
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.83203125" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="133.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -665,19 +669,22 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -720,17 +727,20 @@
       <c r="P2">
         <v>3579.54</v>
       </c>
-      <c r="R2">
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="S2">
         <v>93.2</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>93.4</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>34.08</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -773,17 +783,20 @@
       <c r="P3">
         <v>3597.07</v>
       </c>
-      <c r="R3">
-        <v>93.3</v>
+      <c r="Q3">
+        <v>2</v>
       </c>
       <c r="S3">
+        <v>93.3</v>
+      </c>
+      <c r="T3">
         <v>93.5</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>34.08</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -826,20 +839,23 @@
       <c r="P4">
         <v>3802.3</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
         <v>52</v>
-      </c>
-      <c r="R4">
-        <v>93.5</v>
       </c>
       <c r="S4">
         <v>93.5</v>
       </c>
       <c r="T4">
+        <v>93.5</v>
+      </c>
+      <c r="U4">
         <v>34.08</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -882,17 +898,20 @@
       <c r="P5">
         <v>3373.13</v>
       </c>
-      <c r="R5">
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="S5">
         <v>93.4</v>
       </c>
-      <c r="S5">
-        <v>93.3</v>
-      </c>
       <c r="T5">
+        <v>93.3</v>
+      </c>
+      <c r="U5">
         <v>33.090000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -935,17 +954,20 @@
       <c r="P6">
         <v>3359.19</v>
       </c>
-      <c r="R6">
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="S6">
         <v>93.2</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>93.4</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>33.090000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -988,17 +1010,20 @@
       <c r="P7">
         <v>3369.09</v>
       </c>
-      <c r="R7">
-        <v>93.4</v>
+      <c r="Q7">
+        <v>2</v>
       </c>
       <c r="S7">
         <v>93.4</v>
       </c>
       <c r="T7">
+        <v>93.4</v>
+      </c>
+      <c r="U7">
         <v>33.090000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1041,17 +1066,20 @@
       <c r="P8">
         <v>3370.75</v>
       </c>
-      <c r="R8">
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="S8">
         <v>93.4</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>93.5</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>33.090000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1094,17 +1122,20 @@
       <c r="P9">
         <v>3373.7</v>
       </c>
-      <c r="R9">
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="S9">
         <v>93.4</v>
       </c>
-      <c r="S9">
-        <v>93.3</v>
-      </c>
       <c r="T9">
+        <v>93.3</v>
+      </c>
+      <c r="U9">
         <v>31.93</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -1147,17 +1178,20 @@
       <c r="P10">
         <v>3366.72</v>
       </c>
-      <c r="R10">
-        <v>93.3</v>
+      <c r="Q10">
+        <v>2</v>
       </c>
       <c r="S10">
+        <v>93.3</v>
+      </c>
+      <c r="T10">
         <v>93.4</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>31.93</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1200,17 +1234,20 @@
       <c r="P11">
         <v>3376.05</v>
       </c>
-      <c r="R11">
-        <v>93.3</v>
+      <c r="Q11">
+        <v>2</v>
       </c>
       <c r="S11">
+        <v>93.3</v>
+      </c>
+      <c r="T11">
         <v>93.2</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>31.93</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1253,17 +1290,20 @@
       <c r="P12">
         <v>3377.87</v>
       </c>
-      <c r="R12">
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>93.2</v>
       </c>
-      <c r="S12">
-        <v>93.3</v>
-      </c>
       <c r="T12">
+        <v>93.3</v>
+      </c>
+      <c r="U12">
         <v>31.93</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1306,17 +1346,20 @@
       <c r="P13">
         <v>3286.52</v>
       </c>
-      <c r="R13">
-        <v>93.3</v>
+      <c r="Q13">
+        <v>2</v>
       </c>
       <c r="S13">
+        <v>93.3</v>
+      </c>
+      <c r="T13">
         <v>93.4</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>31.13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1359,17 +1402,20 @@
       <c r="P14">
         <v>3288.66</v>
       </c>
-      <c r="R14">
-        <v>93.3</v>
+      <c r="Q14">
+        <v>2</v>
       </c>
       <c r="S14">
+        <v>93.3</v>
+      </c>
+      <c r="T14">
         <v>93.4</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>31.13</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -1412,17 +1458,20 @@
       <c r="P15">
         <v>3286.29</v>
       </c>
-      <c r="R15">
-        <v>93.3</v>
+      <c r="Q15">
+        <v>2</v>
       </c>
       <c r="S15">
         <v>93.3</v>
       </c>
       <c r="T15">
+        <v>93.3</v>
+      </c>
+      <c r="U15">
         <v>31.13</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1465,20 +1514,23 @@
       <c r="P16">
         <v>3330.95</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
         <v>53</v>
       </c>
-      <c r="R16">
-        <v>93.3</v>
-      </c>
       <c r="S16">
+        <v>93.3</v>
+      </c>
+      <c r="T16">
         <v>93.4</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>31.13</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1521,17 +1573,20 @@
       <c r="P17">
         <v>3189.01</v>
       </c>
-      <c r="R17">
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="S17">
         <v>93.4</v>
       </c>
-      <c r="S17">
-        <v>93.3</v>
-      </c>
       <c r="T17">
+        <v>93.3</v>
+      </c>
+      <c r="U17">
         <v>30.04</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1574,17 +1629,20 @@
       <c r="P18">
         <v>3186.51</v>
       </c>
-      <c r="R18">
-        <v>93.3</v>
+      <c r="Q18">
+        <v>2</v>
       </c>
       <c r="S18">
+        <v>93.3</v>
+      </c>
+      <c r="T18">
         <v>93.4</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>30.04</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1627,17 +1685,20 @@
       <c r="P19">
         <v>3184.72</v>
       </c>
-      <c r="R19">
-        <v>93.3</v>
+      <c r="Q19">
+        <v>2</v>
       </c>
       <c r="S19">
+        <v>93.3</v>
+      </c>
+      <c r="T19">
         <v>93.4</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>30.04</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1680,20 +1741,23 @@
       <c r="P20">
         <v>3191.21</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
         <v>54</v>
       </c>
-      <c r="R20">
-        <v>93.3</v>
-      </c>
       <c r="S20">
+        <v>93.3</v>
+      </c>
+      <c r="T20">
         <v>93.4</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>30.04</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -1736,20 +1800,23 @@
       <c r="P21">
         <v>3054.67</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s">
         <v>55</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>93</v>
       </c>
-      <c r="S21">
-        <v>93.3</v>
-      </c>
       <c r="T21">
+        <v>93.3</v>
+      </c>
+      <c r="U21">
         <v>29.11</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1792,20 +1859,23 @@
       <c r="P22">
         <v>3060.91</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s">
         <v>56</v>
       </c>
-      <c r="R22">
-        <v>93.3</v>
-      </c>
       <c r="S22">
         <v>93.3</v>
       </c>
       <c r="T22">
+        <v>93.3</v>
+      </c>
+      <c r="U22">
         <v>29.11</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1848,20 +1918,23 @@
       <c r="P23">
         <v>3057.7</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
         <v>57</v>
       </c>
-      <c r="R23">
-        <v>93.3</v>
-      </c>
       <c r="S23">
         <v>93.3</v>
       </c>
       <c r="T23">
+        <v>93.3</v>
+      </c>
+      <c r="U23">
         <v>29.11</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1904,20 +1977,23 @@
       <c r="P24">
         <v>3058.12</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
         <v>58</v>
       </c>
-      <c r="R24">
-        <v>93.3</v>
-      </c>
       <c r="S24">
         <v>93.3</v>
       </c>
       <c r="T24">
+        <v>93.3</v>
+      </c>
+      <c r="U24">
         <v>29.11</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1960,20 +2036,23 @@
       <c r="P25">
         <v>2932.47</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s">
         <v>59</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>93</v>
       </c>
-      <c r="S25">
-        <v>93.3</v>
-      </c>
       <c r="T25">
+        <v>93.3</v>
+      </c>
+      <c r="U25">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -2016,17 +2095,20 @@
       <c r="P26">
         <v>2936.4</v>
       </c>
-      <c r="R26">
-        <v>93.3</v>
+      <c r="Q26">
+        <v>2</v>
       </c>
       <c r="S26">
+        <v>93.3</v>
+      </c>
+      <c r="T26">
         <v>93.4</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -2069,17 +2151,20 @@
       <c r="P27">
         <v>2939.54</v>
       </c>
-      <c r="R27">
-        <v>93.4</v>
+      <c r="Q27">
+        <v>2</v>
       </c>
       <c r="S27">
         <v>93.4</v>
       </c>
       <c r="T27">
+        <v>93.4</v>
+      </c>
+      <c r="U27">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2122,17 +2207,20 @@
       <c r="P28">
         <v>2939.09</v>
       </c>
-      <c r="R28">
-        <v>93.4</v>
+      <c r="Q28">
+        <v>2</v>
       </c>
       <c r="S28">
         <v>93.4</v>
       </c>
       <c r="T28">
+        <v>93.4</v>
+      </c>
+      <c r="U28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2175,20 +2263,23 @@
       <c r="P29">
         <v>2167.81</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
         <v>60</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>93.4</v>
       </c>
-      <c r="S29">
-        <v>93.3</v>
-      </c>
       <c r="T29">
+        <v>93.3</v>
+      </c>
+      <c r="U29">
         <v>26.91</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2231,20 +2322,23 @@
       <c r="P30">
         <v>2845.91</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30" t="s">
         <v>61</v>
       </c>
-      <c r="R30">
-        <v>93.3</v>
-      </c>
       <c r="S30">
         <v>93.3</v>
       </c>
       <c r="T30">
+        <v>93.3</v>
+      </c>
+      <c r="U30">
         <v>26.91</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -2287,17 +2381,20 @@
       <c r="P31">
         <v>2844.48</v>
       </c>
-      <c r="R31">
-        <v>93.3</v>
+      <c r="Q31">
+        <v>2</v>
       </c>
       <c r="S31">
+        <v>93.3</v>
+      </c>
+      <c r="T31">
         <v>93.4</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>26.91</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2340,17 +2437,20 @@
       <c r="P32">
         <v>2847.71</v>
       </c>
-      <c r="R32">
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="S32">
         <v>93.4</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>93.5</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>26.91</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2393,17 +2493,20 @@
       <c r="P33">
         <v>2726.86</v>
       </c>
-      <c r="R33">
-        <v>93.5</v>
+      <c r="Q33">
+        <v>2</v>
       </c>
       <c r="S33">
         <v>93.5</v>
       </c>
       <c r="T33">
+        <v>93.5</v>
+      </c>
+      <c r="U33">
         <v>26.07</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2446,17 +2549,20 @@
       <c r="P34">
         <v>2741.11</v>
       </c>
-      <c r="R34">
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="S34">
         <v>93.5</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>93.2</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>26.07</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -2499,17 +2605,20 @@
       <c r="P35">
         <v>2734.26</v>
       </c>
-      <c r="R35">
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="S35">
         <v>93.2</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>93.4</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>26.07</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2552,16 +2661,19 @@
       <c r="P36">
         <v>2739.45</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s">
         <v>62</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>93.4</v>
       </c>
-      <c r="S36">
-        <v>93.3</v>
-      </c>
       <c r="T36">
+        <v>93.3</v>
+      </c>
+      <c r="U36">
         <v>26.07</v>
       </c>
     </row>
@@ -2570,7 +2682,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D36" xr:uid="{0121CAD0-C233-2A41-992E-1591696CC270}">
       <formula1>"calcium_r1, alk_vs_sal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E36 E2" xr:uid="{F96C1502-7584-D145-B560-0F2EEF455D49}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E36" xr:uid="{F96C1502-7584-D145-B560-0F2EEF455D49}">
       <formula1>"chamber, head_tank, high_salinity, other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F36" xr:uid="{965AD787-0F9E-144B-BD40-622D59A97E97}">
